--- a/アカウント検索_単体テスト.xlsx
+++ b/アカウント検索_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4877655D-C64D-4CCD-B84B-3D74EA4BACE9}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D530E678-4E48-4B00-A020-35FB12F7219B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="アカウント更新完了画面" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="275">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -5616,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5722,8 +5721,12 @@
       <c r="F8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5756,8 +5759,12 @@
       <c r="F10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5790,8 +5797,12 @@
       <c r="F12" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5824,8 +5835,12 @@
       <c r="F14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5858,8 +5873,12 @@
       <c r="F16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5892,8 +5911,12 @@
       <c r="F18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5926,8 +5949,12 @@
       <c r="F20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5960,8 +5987,12 @@
       <c r="F22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5994,8 +6025,12 @@
       <c r="F24" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6007,7 +6042,7 @@
         <v>244</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
@@ -6028,8 +6063,12 @@
       <c r="F26" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6062,8 +6101,12 @@
       <c r="F28" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6096,8 +6139,12 @@
       <c r="F30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6130,8 +6177,12 @@
       <c r="F32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6164,8 +6215,12 @@
       <c r="F34" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6198,8 +6253,12 @@
       <c r="F36" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6232,8 +6291,12 @@
       <c r="F38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6266,8 +6329,12 @@
       <c r="F40" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6300,8 +6367,12 @@
       <c r="F42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6334,8 +6405,12 @@
       <c r="F44" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6368,8 +6443,12 @@
       <c r="F46" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6402,8 +6481,12 @@
       <c r="F48" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6436,8 +6519,12 @@
       <c r="F50" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6470,8 +6557,12 @@
       <c r="F52" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6504,8 +6595,12 @@
       <c r="F54" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6538,8 +6633,12 @@
       <c r="F56" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6572,8 +6671,12 @@
       <c r="F58" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6606,8 +6709,12 @@
       <c r="F60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
